--- a/data/trans_dic/PCS12_SP_R2-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/PCS12_SP_R2-Habitat-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.4736131949291718</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.5210556010405493</v>
+        <v>0.5210556010405494</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.3885008538038575</v>
+        <v>0.3891713208629487</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.4168905439239334</v>
+        <v>0.4172840376536356</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.394058959943035</v>
+        <v>0.397345881605988</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.4623552298971573</v>
+        <v>0.4626340921736359</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.5324734957276686</v>
+        <v>0.5344397186245783</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.4927661504948674</v>
+        <v>0.4954462944972867</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.4769191028083834</v>
+        <v>0.4716706890758568</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.5046757624918532</v>
+        <v>0.502176750938012</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.4749206465404092</v>
+        <v>0.4720690649899525</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.4632120964413753</v>
+        <v>0.4680089556022994</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.4464691189667477</v>
+        <v>0.4464428004786621</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.4964885668884831</v>
+        <v>0.4951667555592755</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.4638063637495433</v>
+        <v>0.4619599739722449</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.4895888730744588</v>
+        <v>0.4928986598241326</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.4715074974483449</v>
+        <v>0.4725838437358776</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.5457891595734701</v>
+        <v>0.5484233781540372</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.6077801801843957</v>
+        <v>0.6100518282436338</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.5736698935479247</v>
+        <v>0.570997276244071</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.5528501236658465</v>
+        <v>0.5499982375606186</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.566224477400898</v>
+        <v>0.5645778389957221</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.5267969454686127</v>
+        <v>0.5249028649224469</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.5189030334895067</v>
+        <v>0.5229348010702899</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.5011314699754156</v>
+        <v>0.5025568948744715</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.5487189042103368</v>
+        <v>0.5490855754930363</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.4682532344509634</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.499182014879015</v>
+        <v>0.4991820148790151</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.4997855698614878</v>
@@ -833,7 +833,7 @@
         <v>0.4188982358113266</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.4346186379808652</v>
+        <v>0.4346186379808651</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.3652617856863412</v>
+        <v>0.362922784528487</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.409458025627614</v>
+        <v>0.4081699256465566</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.33565100565098</v>
+        <v>0.3390323382440213</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.3372055501664015</v>
+        <v>0.3359036017414652</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.5708172055996193</v>
+        <v>0.5704668209019174</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.5211584944988228</v>
+        <v>0.5212220088200988</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.4349199052758441</v>
+        <v>0.4332974568540498</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.4719267469961296</v>
+        <v>0.4701192707774863</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.4763850501938747</v>
+        <v>0.4767110439077685</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.475062232006878</v>
+        <v>0.4741006960973178</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.3950256921272071</v>
+        <v>0.3968996713878057</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.4103506716489205</v>
+        <v>0.4141741858888178</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.430412610378853</v>
+        <v>0.4243968256080003</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.4751492347762813</v>
+        <v>0.4760194428208067</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.401169539063458</v>
+        <v>0.4009353191972281</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.4014893223288425</v>
+        <v>0.399145987569029</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.6353886885522744</v>
+        <v>0.6342694566688986</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.5859461374587516</v>
+        <v>0.5852282202765042</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.4993071357559913</v>
+        <v>0.5005073080023019</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.5287338774843897</v>
+        <v>0.526902228872218</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.5223687398499501</v>
+        <v>0.5228651629892596</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.5189435923825019</v>
+        <v>0.5175828173776372</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.4406287093523871</v>
+        <v>0.4419175084430233</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.4550978387153995</v>
+        <v>0.4587610034062695</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.490214701466862</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.5183319896077291</v>
+        <v>0.5183319896077292</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.5179343535528126</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.4242285675023507</v>
+        <v>0.4299981050708911</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3682872454468378</v>
+        <v>0.3715097837101813</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3700210909317026</v>
+        <v>0.3661144263915628</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.4164812094113112</v>
+        <v>0.4144392752193579</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.52891848670862</v>
+        <v>0.5316892268736344</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.4890783026040711</v>
+        <v>0.4885790670214574</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.4540011934138111</v>
+        <v>0.4524768855699839</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.4849036629994557</v>
+        <v>0.4870924866120495</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.4913076865737019</v>
+        <v>0.4906420869420757</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.4429412369521408</v>
+        <v>0.4430443605582819</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.4240010000693344</v>
+        <v>0.4226706394502718</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.4583323002965529</v>
+        <v>0.4628632379510653</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.5033036515247961</v>
+        <v>0.5108633323722128</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.4448857236560719</v>
+        <v>0.4448314095381707</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.4444357716371845</v>
+        <v>0.4390622453452815</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.4964198372109305</v>
+        <v>0.4913737579727082</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.6060448272476333</v>
+        <v>0.6052745592340664</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.5625367876167021</v>
+        <v>0.5658619426523468</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.5266166618545541</v>
+        <v>0.5264868158725966</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.5513861104357395</v>
+        <v>0.5520185594805898</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.5450539037286531</v>
+        <v>0.5445473603787216</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.498672284436774</v>
+        <v>0.4964878754478553</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.4755089776182131</v>
+        <v>0.4755701521656553</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.5127135344199931</v>
+        <v>0.513608345601697</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.3690069252579443</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.5117238107350006</v>
+        <v>0.5117238107350007</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.5405417375396683</v>
@@ -1105,7 +1105,7 @@
         <v>0.414771526577714</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.538571244916395</v>
+        <v>0.5385712449163951</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.3929374467799682</v>
+        <v>0.3923286731353332</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.4215750745950276</v>
+        <v>0.4222499171384665</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.337136837721332</v>
+        <v>0.3373620123072577</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.4799227736175553</v>
+        <v>0.4744977125417</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.5095661672761794</v>
+        <v>0.5106704291025078</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.521646960221993</v>
+        <v>0.5240997492780315</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.4218165836710218</v>
+        <v>0.4233958507586147</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.5357214829698941</v>
+        <v>0.5359055362394668</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.4630954130032695</v>
+        <v>0.4617195260062864</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.484456085083841</v>
+        <v>0.4836532324507963</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.3956093495241531</v>
+        <v>0.3911699289322346</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.5155659782794512</v>
+        <v>0.5167129899421951</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.4570971141692908</v>
+        <v>0.4557392624478094</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.4884627345076571</v>
+        <v>0.4841762231099027</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3987140365196179</v>
+        <v>0.400811272843683</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.546304547976183</v>
+        <v>0.5450180741696333</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.5715701345099412</v>
+        <v>0.5704341312816635</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.5838157563223448</v>
+        <v>0.5829256405560554</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.4859705806307759</v>
+        <v>0.4865989636235125</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.5883680258762386</v>
+        <v>0.589339468335457</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.5079881759848567</v>
+        <v>0.5067955349505647</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.528214844422666</v>
+        <v>0.5306511661435007</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.4382792776926155</v>
+        <v>0.4376859109795016</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.5591025357182456</v>
+        <v>0.5603395475228262</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.3894746405798993</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.4547680896157147</v>
+        <v>0.4547680896157148</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.5705339626011435</v>
@@ -1229,7 +1229,7 @@
         <v>0.478273873143024</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.5293792450541746</v>
+        <v>0.5293792450541744</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.4992515672809898</v>
@@ -1241,7 +1241,7 @@
         <v>0.4348352822758739</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.493108237457962</v>
+        <v>0.4931082374579619</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.4095674504047762</v>
+        <v>0.407989781229815</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.4217463439527973</v>
+        <v>0.4225608841561045</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.3735907349036597</v>
+        <v>0.3697753228084997</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.4367627928679932</v>
+        <v>0.4363542408794456</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.5525015884179793</v>
+        <v>0.5538512447247268</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.524213308600714</v>
+        <v>0.5246853913671619</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.460829771090308</v>
+        <v>0.4615034713348286</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.5147631133909514</v>
+        <v>0.5152136935730511</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.4866476978769131</v>
+        <v>0.4872718249871985</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.4801786269210465</v>
+        <v>0.4799680084678725</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.4209052520940043</v>
+        <v>0.4224083274331116</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.4816579313400714</v>
+        <v>0.4805354574171734</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.4451812457700149</v>
+        <v>0.4424922896567671</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.4578554008318809</v>
+        <v>0.458007807657544</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.4084013041644168</v>
+        <v>0.406091569091004</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.4731500283535194</v>
+        <v>0.4737041806728017</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.5872208854678156</v>
+        <v>0.5882591944745356</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.5590731126531147</v>
+        <v>0.5600963739409184</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.4971996481003389</v>
+        <v>0.4970641357587558</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.5443667827508027</v>
+        <v>0.5459186385306525</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.5108434802487847</v>
+        <v>0.5114678552534737</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.5054677359646127</v>
+        <v>0.504313992766655</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.4458991768283715</v>
+        <v>0.4460456948658646</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.5046836766909504</v>
+        <v>0.5049980755412307</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>269624</v>
+        <v>270090</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>293270</v>
+        <v>293546</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>265911</v>
+        <v>268129</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>316607</v>
+        <v>316798</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>366529</v>
+        <v>367882</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>343483</v>
+        <v>345351</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>320890</v>
+        <v>317358</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>366915</v>
+        <v>365098</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>656513</v>
+        <v>652571</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>648737</v>
+        <v>655455</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>601679</v>
+        <v>601644</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>700944</v>
+        <v>699077</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>321887</v>
+        <v>320606</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>344411</v>
+        <v>346739</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>318173</v>
+        <v>318900</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>373741</v>
+        <v>375544</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>418366</v>
+        <v>419930</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>399877</v>
+        <v>398014</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>371979</v>
+        <v>370060</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>411663</v>
+        <v>410466</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>728225</v>
+        <v>725606</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>726734</v>
+        <v>732380</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>675344</v>
+        <v>677265</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>774682</v>
+        <v>775200</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>351309</v>
+        <v>349059</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>416807</v>
+        <v>415495</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>343180</v>
+        <v>346637</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>351986</v>
+        <v>350627</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>552775</v>
+        <v>552436</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>537931</v>
+        <v>537997</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>453584</v>
+        <v>451892</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>502654</v>
+        <v>500729</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>919515</v>
+        <v>920144</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>973940</v>
+        <v>971969</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>815864</v>
+        <v>819734</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>865406</v>
+        <v>873470</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>413971</v>
+        <v>408185</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>483677</v>
+        <v>484563</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>410168</v>
+        <v>409929</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>419087</v>
+        <v>416641</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>615306</v>
+        <v>614222</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>604804</v>
+        <v>604063</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>520734</v>
+        <v>521986</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>563160</v>
+        <v>561209</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>1008272</v>
+        <v>1009231</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>1063902</v>
+        <v>1061113</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>910050</v>
+        <v>912712</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>959775</v>
+        <v>967501</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>287843</v>
+        <v>291758</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>279023</v>
+        <v>281464</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>281050</v>
+        <v>278083</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>333329</v>
+        <v>331694</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>361696</v>
+        <v>363591</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>380099</v>
+        <v>379711</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>356396</v>
+        <v>355199</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>392967</v>
+        <v>394741</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>669333</v>
+        <v>668426</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>679825</v>
+        <v>679983</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>654896</v>
+        <v>652841</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>738258</v>
+        <v>745556</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>341496</v>
+        <v>346625</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>337056</v>
+        <v>337015</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>337572</v>
+        <v>333491</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>397307</v>
+        <v>393269</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>414438</v>
+        <v>413912</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>437189</v>
+        <v>439773</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>413400</v>
+        <v>413298</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>446845</v>
+        <v>447357</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>742554</v>
+        <v>741864</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>765361</v>
+        <v>762008</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>734454</v>
+        <v>734548</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>825853</v>
+        <v>827294</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>370234</v>
+        <v>369661</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>399543</v>
+        <v>400183</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>316088</v>
+        <v>316299</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>473278</v>
+        <v>467928</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>529242</v>
+        <v>530388</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>548721</v>
+        <v>551301</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>440283</v>
+        <v>441932</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>596302</v>
+        <v>596507</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>917315</v>
+        <v>914590</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>968738</v>
+        <v>967132</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>783839</v>
+        <v>775043</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>1082295</v>
+        <v>1084703</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>430687</v>
+        <v>429408</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>462935</v>
+        <v>458873</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>373821</v>
+        <v>375787</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>538741</v>
+        <v>537472</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>593640</v>
+        <v>592460</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>614116</v>
+        <v>613180</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>507246</v>
+        <v>507902</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>654902</v>
+        <v>655983</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>1006240</v>
+        <v>1003878</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>1056240</v>
+        <v>1061111</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>868383</v>
+        <v>867207</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>1173689</v>
+        <v>1176286</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>1341965</v>
+        <v>1336796</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1445232</v>
+        <v>1448023</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1268098</v>
+        <v>1255147</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>1535266</v>
+        <v>1533830</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>1867012</v>
+        <v>1871572</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>1865313</v>
+        <v>1866993</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>1633430</v>
+        <v>1635818</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>1912668</v>
+        <v>1914342</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>3239001</v>
+        <v>3243155</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>3354090</v>
+        <v>3352619</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>2920616</v>
+        <v>2931046</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>3482738</v>
+        <v>3474622</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>1458655</v>
+        <v>1449845</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>1568969</v>
+        <v>1569492</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>1386257</v>
+        <v>1378417</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>1663171</v>
+        <v>1665119</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>1984335</v>
+        <v>1987844</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>1989355</v>
+        <v>1992996</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>1762345</v>
+        <v>1761865</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>2022664</v>
+        <v>2028430</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>3400042</v>
+        <v>3404198</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>3530737</v>
+        <v>3522678</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>3094046</v>
+        <v>3095063</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>3649231</v>
+        <v>3651505</v>
       </c>
     </row>
     <row r="24">
